--- a/biology/Médecine/Éric_Berne/Éric_Berne.xlsx
+++ b/biology/Médecine/Éric_Berne/Éric_Berne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Berne</t>
+          <t>Éric_Berne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric Berne , né à Montréal (Canada) (sous le nom d'Éric Bernstein), le 10 mai 1910, mort le 15 juillet 1970, psychiatre américain, fondateur de l'analyse transactionnelle.
 Né dans une famille juive émigrée d'Europe de l'Est, il étudie la médecine à l'Université McGill, puis la psychiatrie à l'université Yale aux États-Unis, et devient citoyen américain en 1939.
